--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/22.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/22.xlsx
@@ -479,13 +479,13 @@
         <v>-10.48707862477852</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.48333766639087</v>
+        <v>-21.51617223650907</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01277510964718425</v>
+        <v>-0.0257749789063111</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.066780705562513</v>
+        <v>-9.031164290537037</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.15986284124304</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.62454196272111</v>
+        <v>-21.65815388493115</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.142817803300255</v>
+        <v>-0.1565754686237536</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.554119445497811</v>
+        <v>-8.52442361778817</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.707150025141333</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.81363408131278</v>
+        <v>-21.84364769446877</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3102516214714912</v>
+        <v>-0.3221367971649614</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.44571060723084</v>
+        <v>-8.41559921393751</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.167414791222479</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.93848464967319</v>
+        <v>-21.96679688843949</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3509526036385581</v>
+        <v>-0.359752815999005</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.890871884925263</v>
+        <v>-7.865321935038765</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.540807695635172</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.88452956988991</v>
+        <v>-21.9078794666863</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4760231773079763</v>
+        <v>-0.4843002659336633</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.197830716505734</v>
+        <v>-7.172813668367731</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.839139319820691</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.15587922901743</v>
+        <v>-22.17916067971767</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6208697837540655</v>
+        <v>-0.6315229297170731</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.587208425848658</v>
+        <v>-6.566743043103751</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.079674750949436</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.53900625214321</v>
+        <v>-22.56274238048209</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7882547118566325</v>
+        <v>-0.7992354212797236</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.143834171101875</v>
+        <v>-6.128805363992979</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.272292426268681</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.7966031349541</v>
+        <v>-22.82337044755046</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.929864795756824</v>
+        <v>-0.9382787765747846</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.815180462487251</v>
+        <v>-5.800420550756035</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.417354208302323</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.2358657349258</v>
+        <v>-23.26354240279941</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.023367052086573</v>
+        <v>-1.03336996013628</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.490462404400494</v>
+        <v>-5.481266182483827</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.529456431739126</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.64237198888918</v>
+        <v>-23.67099712409497</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.2917148609978</v>
+        <v>-1.300578630447517</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.121484167147556</v>
+        <v>-5.107037151855823</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.606699340203725</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.10566405761178</v>
+        <v>-24.13459720025018</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.226295060111611</v>
+        <v>-1.231663189651484</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.963373685071527</v>
+        <v>-4.949352013377215</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.640090980971877</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.67613782387775</v>
+        <v>-24.70826348800025</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.153233741492434</v>
+        <v>-1.160068573092381</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.899489032341549</v>
+        <v>-4.884186440848105</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.641930537547116</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.2829222441443</v>
+        <v>-25.31326342076037</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.092346049971875</v>
+        <v>-1.09859908975466</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.787061430429973</v>
+        <v>-4.768199641937415</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.6196277251327661</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.88006065386242</v>
+        <v>-25.91437170405443</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.048682329643458</v>
+        <v>-1.055062483604782</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.798980829171512</v>
+        <v>-4.782382650858335</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4174498760095012</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.63503087226516</v>
+        <v>-26.67327268397817</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9689328496303414</v>
+        <v>-0.9718369197092889</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.768184974916815</v>
+        <v>-4.748941843888637</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.434324653435107</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.40557746654589</v>
+        <v>-27.44046297504476</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8439796121257291</v>
+        <v>-0.8467125669643346</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.795993645975827</v>
+        <v>-4.777591424128759</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.399701267886975</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.29082993993818</v>
+        <v>-28.32581567307782</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6817574752746243</v>
+        <v>-0.6827010535999388</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.035266531049511</v>
+        <v>-5.0205946214419</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.289162019884344</v>
       </c>
       <c r="E19" t="n">
-        <v>-28.93229453041519</v>
+        <v>-28.96877874415954</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4275584522362484</v>
+        <v>-0.4295727230654174</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.330596768859243</v>
+        <v>-5.316663099288535</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>4.068713172015503</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.36163977995736</v>
+        <v>-29.39651062143563</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2235157506455531</v>
+        <v>-0.2254517973648514</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.671917894266043</v>
+        <v>-5.653779678789788</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>4.717378387168262</v>
       </c>
       <c r="E21" t="n">
-        <v>-29.96334696659262</v>
+        <v>-29.99678044005201</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1833571788328427</v>
+        <v>0.1821984842053839</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.028927842708773</v>
+        <v>-6.005142824301232</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>5.231195814819124</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.4986932185198</v>
+        <v>-30.53701814334955</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2470364932744099</v>
+        <v>0.2451835596718492</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.285708261372879</v>
+        <v>-6.264494860577336</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>5.606872250614062</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.82109877635851</v>
+        <v>-30.85978793219984</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5335322956756259</v>
+        <v>0.5313713546404495</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.601127428398764</v>
+        <v>-6.575914819986084</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>5.853276967476559</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.00219981322621</v>
+        <v>-31.0466799977014</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7182634201420072</v>
+        <v>0.7176816283248443</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.854084643692944</v>
+        <v>-6.831311649706854</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>5.993426742220461</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.28577443402444</v>
+        <v>-31.33395315219445</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9567345080895177</v>
+        <v>0.9569398463779281</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.927801089232288</v>
+        <v>-6.901288004993008</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>6.049847209445553</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.20874324182933</v>
+        <v>-31.2547707969779</v>
       </c>
       <c r="F26" t="n">
-        <v>1.010014904925157</v>
+        <v>1.004881447714896</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.0849239919212</v>
+        <v>-7.065265295309335</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>6.046236822689685</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.29728560069259</v>
+        <v>-31.34598010908707</v>
       </c>
       <c r="F27" t="n">
-        <v>1.245865485192001</v>
+        <v>1.242731631790308</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.331613500411994</v>
+        <v>-7.314526421412127</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>6.009051985561302</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.11644612569227</v>
+        <v>-31.16516996812795</v>
       </c>
       <c r="F28" t="n">
-        <v>1.392418355034643</v>
+        <v>1.39262858232992</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.520275386399375</v>
+        <v>-7.5030416371935</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>5.958571085824244</v>
       </c>
       <c r="E29" t="n">
-        <v>-30.92461127424827</v>
+        <v>-30.97286577202471</v>
       </c>
       <c r="F29" t="n">
-        <v>1.409040978382154</v>
+        <v>1.409930777631933</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.829216619326598</v>
+        <v>-7.81081439747953</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.906130643479601</v>
       </c>
       <c r="E30" t="n">
-        <v>-30.79483503146944</v>
+        <v>-30.84875588820465</v>
       </c>
       <c r="F30" t="n">
-        <v>1.535959596647266</v>
+        <v>1.537626747988884</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.879216492554537</v>
+        <v>-7.859474682825935</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>5.858748562654287</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.52645299951014</v>
+        <v>-30.57696132945225</v>
       </c>
       <c r="F31" t="n">
-        <v>1.446534772044525</v>
+        <v>1.446221875605042</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.821032421831383</v>
+        <v>-7.800190585557724</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.817467243670552</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.10100917744778</v>
+        <v>-30.15581249992246</v>
       </c>
       <c r="F32" t="n">
         <v>1.424724912411217</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.835445214075047</v>
+        <v>-7.809538366687265</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.774225053646329</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.62751375139393</v>
+        <v>-29.67732050885062</v>
       </c>
       <c r="F33" t="n">
-        <v>1.361202046189391</v>
+        <v>1.361984287288098</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.061380888415789</v>
+        <v>-8.041419073378174</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>5.715814864574496</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.05835512797516</v>
+        <v>-29.10725253015461</v>
       </c>
       <c r="F34" t="n">
-        <v>1.36210651245977</v>
+        <v>1.362991422702682</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.078790641868872</v>
+        <v>-8.057455015901656</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.628747392249696</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.55970576159103</v>
+        <v>-28.61267081748376</v>
       </c>
       <c r="F35" t="n">
-        <v>1.383065684898235</v>
+        <v>1.38264523030768</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.05431138448623</v>
+        <v>-8.032481968825454</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.496769065169435</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.93738652200486</v>
+        <v>-27.98832264004782</v>
       </c>
       <c r="F36" t="n">
-        <v>1.313974239854993</v>
+        <v>1.313191998756287</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.890994110096935</v>
+        <v>-7.865307268018165</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.300665509511322</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.31670754422254</v>
+        <v>-27.36251264955867</v>
       </c>
       <c r="F37" t="n">
-        <v>1.403614180759879</v>
+        <v>1.402572822297226</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.776884689823141</v>
+        <v>-7.756561088277375</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.02630919307112</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.73438526981461</v>
+        <v>-26.7796330283679</v>
       </c>
       <c r="F38" t="n">
-        <v>1.235124337105389</v>
+        <v>1.234263871896812</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.688941234301074</v>
+        <v>-7.672074160610218</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>4.664594539077184</v>
       </c>
       <c r="E39" t="n">
-        <v>-25.98309647358265</v>
+        <v>-26.02393434794199</v>
       </c>
       <c r="F39" t="n">
-        <v>1.320965519674681</v>
+        <v>1.320535287070393</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.605471220062236</v>
+        <v>-7.587181445373107</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>4.202123293705797</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.37637561040537</v>
+        <v>-25.41146890169609</v>
       </c>
       <c r="F40" t="n">
-        <v>1.321058410805153</v>
+        <v>1.319234811243793</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.243591820780058</v>
+        <v>-7.230675064637668</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>3.634627798881638</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.81366558704406</v>
+        <v>-24.84610414760605</v>
       </c>
       <c r="F41" t="n">
-        <v>1.373537010514618</v>
+        <v>1.372627655237372</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.245351863252147</v>
+        <v>-7.2286754608291</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>2.969199942700468</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.14231694209304</v>
+        <v>-24.17338658073228</v>
       </c>
       <c r="F42" t="n">
-        <v>1.374060134249378</v>
+        <v>1.37239298290776</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.970951463839679</v>
+        <v>-6.957355135742788</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.206130706960232</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.46387434817812</v>
+        <v>-23.49408841061565</v>
       </c>
       <c r="F43" t="n">
-        <v>1.333818718727801</v>
+        <v>1.330758200429112</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.88589741137596</v>
+        <v>-6.876862526685901</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.354996831685475</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.79676936118757</v>
+        <v>-22.82210908377879</v>
       </c>
       <c r="F44" t="n">
-        <v>1.444227160803341</v>
+        <v>1.441562652060872</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.812796980701847</v>
+        <v>-6.802011831553433</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4389699784214508</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.96732001217425</v>
+        <v>-21.99196549579037</v>
       </c>
       <c r="F45" t="n">
-        <v>1.491728751522287</v>
+        <v>1.488057107365233</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.649777935731435</v>
+        <v>-6.640415487581294</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.5297292127762868</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.45347072344089</v>
+        <v>-21.47610193622783</v>
       </c>
       <c r="F46" t="n">
-        <v>1.474451001254609</v>
+        <v>1.472539399569645</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.51354575938485</v>
+        <v>-6.51001100742007</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.531713573309316</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.77761441415856</v>
+        <v>-20.79656909378159</v>
       </c>
       <c r="F47" t="n">
-        <v>1.543899343799136</v>
+        <v>1.54501892637166</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.504080642090503</v>
+        <v>-6.497426703744631</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.534863087296471</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.13243662296613</v>
+        <v>-20.15116640827328</v>
       </c>
       <c r="F48" t="n">
-        <v>1.592862747571289</v>
+        <v>1.593855215965273</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.459898687034192</v>
+        <v>-6.456403047124349</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.520101475418782</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.38549415383887</v>
+        <v>-19.39913937200443</v>
       </c>
       <c r="F49" t="n">
-        <v>1.746490010350358</v>
+        <v>1.745042864317751</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.210309997471318</v>
+        <v>-6.208804183356308</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.46559214349871</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.98168174265916</v>
+        <v>-18.99547363103073</v>
       </c>
       <c r="F50" t="n">
-        <v>1.728718470389122</v>
+        <v>1.72875269343719</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.202883596040474</v>
+        <v>-6.206193453689375</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.339874600391815</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.40615763229967</v>
+        <v>-18.41970507032789</v>
       </c>
       <c r="F51" t="n">
-        <v>1.693962520572223</v>
+        <v>1.697722166852881</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.275143117533476</v>
+        <v>-6.276032916783255</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.125435809275148</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.9473683389015</v>
+        <v>-17.96096466699839</v>
       </c>
       <c r="F52" t="n">
-        <v>1.723233004684443</v>
+        <v>1.720436492756568</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.265526441026255</v>
+        <v>-6.269315421348114</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.806424275068117</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.55570510978608</v>
+        <v>-17.56646581390016</v>
       </c>
       <c r="F53" t="n">
-        <v>1.815615678441668</v>
+        <v>1.811372020481186</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.180071489999449</v>
+        <v>-6.181772864389135</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.362800868800519</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.93436611607672</v>
+        <v>-16.94317610645091</v>
       </c>
       <c r="F54" t="n">
-        <v>1.866001783212093</v>
+        <v>1.862403474158044</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.175021145905926</v>
+        <v>-6.178692790062978</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.78831550321233</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.73265058175468</v>
+        <v>-16.74102056151084</v>
       </c>
       <c r="F55" t="n">
-        <v>1.85786158677868</v>
+        <v>1.854551729129779</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.380779888906908</v>
+        <v>-6.390103225002115</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.082682388124423</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.18517959279754</v>
+        <v>-16.19286511159233</v>
       </c>
       <c r="F56" t="n">
-        <v>1.903813362320814</v>
+        <v>1.898107891307124</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.307464341930651</v>
+        <v>-6.311473327561521</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.245784658652155</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.08943817132275</v>
+        <v>-16.09725569330294</v>
       </c>
       <c r="F57" t="n">
-        <v>1.947012626996874</v>
+        <v>1.940656918069885</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.454305663178442</v>
+        <v>-6.466650405517402</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.28664281137319</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.88796219833718</v>
+        <v>-15.89339388496633</v>
       </c>
       <c r="F58" t="n">
-        <v>1.855338859235352</v>
+        <v>1.844441262928999</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.620795903024363</v>
+        <v>-6.630720586964201</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.218521348287613</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.6348436458164</v>
+        <v>-15.6395713154567</v>
       </c>
       <c r="F59" t="n">
-        <v>1.892255750087427</v>
+        <v>1.885269359274605</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.410343713431143</v>
+        <v>-6.414782931666301</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.056541397846315</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.41026711538466</v>
+        <v>-15.4157574700962</v>
       </c>
       <c r="F60" t="n">
-        <v>1.947643308882706</v>
+        <v>1.942812970098194</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.426555660201832</v>
+        <v>-6.432041125906511</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.818000412958883</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29450521078985</v>
+        <v>-15.2949696664422</v>
       </c>
       <c r="F61" t="n">
-        <v>1.905426734586896</v>
+        <v>1.898156781375793</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.293687120579685</v>
+        <v>-6.292371977732484</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.52032855799753</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.25212241026056</v>
+        <v>-15.25617539695323</v>
       </c>
       <c r="F62" t="n">
-        <v>1.898533234904546</v>
+        <v>1.89099927532263</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.368464480609149</v>
+        <v>-6.368958270302707</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.18486247619702</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.19404589768848</v>
+        <v>-15.20037227257427</v>
       </c>
       <c r="F63" t="n">
-        <v>1.880654136792238</v>
+        <v>1.874684659407734</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.405000028925604</v>
+        <v>-6.404095562655225</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.827356609290695</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.23369085437229</v>
+        <v>-15.24269640502115</v>
       </c>
       <c r="F64" t="n">
-        <v>1.739078275940114</v>
+        <v>1.729945611112717</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.405523152660365</v>
+        <v>-6.402579970526482</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.458729477311397</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.29572257349971</v>
+        <v>-15.30293874763527</v>
       </c>
       <c r="F65" t="n">
-        <v>1.719844922925671</v>
+        <v>1.71312742749053</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.504437539591787</v>
+        <v>-6.502051704240733</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.094459593768152</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.3054174741168</v>
+        <v>-15.31251631208756</v>
       </c>
       <c r="F66" t="n">
-        <v>1.799799741227198</v>
+        <v>1.796749000942243</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.451792713648848</v>
+        <v>-6.450316233575039</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.739000521180913</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.19723353016571</v>
+        <v>-15.20265543878111</v>
       </c>
       <c r="F67" t="n">
-        <v>1.616398426628618</v>
+        <v>1.614843722444939</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.218352413767392</v>
+        <v>-6.213790970360561</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.390073035301088</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.32808779895868</v>
+        <v>-15.33470262524962</v>
       </c>
       <c r="F68" t="n">
-        <v>1.606889308272468</v>
+        <v>1.599414016772955</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.33698905439995</v>
+        <v>-6.332833398563073</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.05098389970958</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.24111236679627</v>
+        <v>-15.24742407466145</v>
       </c>
       <c r="F69" t="n">
-        <v>1.556747653845388</v>
+        <v>1.551306189202512</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.216030135505608</v>
+        <v>-6.211136239631826</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.714936490554082</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.29054511522764</v>
+        <v>-15.29739950285506</v>
       </c>
       <c r="F70" t="n">
-        <v>1.495503064823545</v>
+        <v>1.489401584253635</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.147833378719011</v>
+        <v>-6.143320825380849</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.369545916883271</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.3277309014574</v>
+        <v>-15.33250257215951</v>
       </c>
       <c r="F71" t="n">
-        <v>1.391978344416621</v>
+        <v>1.384771948294788</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.151475688834863</v>
+        <v>-6.147623151423734</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.011530744833215</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.43715176414582</v>
+        <v>-15.44404037482131</v>
       </c>
       <c r="F72" t="n">
-        <v>1.31090394354257</v>
+        <v>1.304709571842189</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.001999192885806</v>
+        <v>-6.001344065965639</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.632718270740532</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.55791512276549</v>
+        <v>-15.56248145517919</v>
       </c>
       <c r="F73" t="n">
-        <v>1.225111651041947</v>
+        <v>1.222769816752695</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.14439640689157</v>
+        <v>-6.145555101519029</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.222215340686962</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.65940601631578</v>
+        <v>-15.66620173586079</v>
       </c>
       <c r="F74" t="n">
-        <v>1.094966288244671</v>
+        <v>1.090649295181185</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.052008844127478</v>
+        <v>-6.054487570609004</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.78123187437957</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.92636045826993</v>
+        <v>-15.93136680130165</v>
       </c>
       <c r="F75" t="n">
-        <v>1.057071596019213</v>
+        <v>1.048911843558332</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.088710618677409</v>
+        <v>-6.091438684509147</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.310216494298422</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.96520850683444</v>
+        <v>-15.96694899327906</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8281634055033883</v>
+        <v>0.8216023582879884</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.235322156602455</v>
+        <v>-6.233288329745818</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.808940212524424</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.01098427812936</v>
+        <v>-16.0136683428993</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6825736700135281</v>
+        <v>0.6766041926290249</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.181059069386565</v>
+        <v>-6.17694741461149</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.289281369473509</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.13599129470951</v>
+        <v>-16.1409585256863</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6979104845550402</v>
+        <v>0.6925863560769699</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.164837344602142</v>
+        <v>-6.158398522558414</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7640959324408654</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.27828095056421</v>
+        <v>-16.28007521608436</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4217060416086802</v>
+        <v>0.4139325206902855</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.171755289318826</v>
+        <v>-6.168831663212411</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2429917481397456</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.73418084090402</v>
+        <v>-16.73952941441643</v>
       </c>
       <c r="F80" t="n">
-        <v>0.397979691283542</v>
+        <v>0.3911693047179295</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.137859804710505</v>
+        <v>-6.136021538128545</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2568906942521229</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.18438992725076</v>
+        <v>-17.19079941525328</v>
       </c>
       <c r="F81" t="n">
-        <v>0.243526186343965</v>
+        <v>0.2339583999054124</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.241716977584379</v>
+        <v>-6.240836956348335</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.7198683651759473</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.61685680767745</v>
+        <v>-17.62333963078298</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.06495547993776749</v>
+        <v>-0.07337434976259503</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.291599514647513</v>
+        <v>-6.290783050500737</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.135785577353954</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.08810817957938</v>
+        <v>-18.09487456508319</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.08058563489129458</v>
+        <v>-0.08815870652814584</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.340641142529536</v>
+        <v>-6.340773145714943</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.490853531522849</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.87710099676898</v>
+        <v>-18.88106598133805</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1901873908337939</v>
+        <v>-0.1947390562268917</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.385864456048499</v>
+        <v>-6.383664402958388</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.774013123855452</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.56832345463402</v>
+        <v>-19.57111996656189</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3445626716635003</v>
+        <v>-0.3500872494231142</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.474106140989448</v>
+        <v>-6.475079053355963</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.978929606453981</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.21566707586849</v>
+        <v>-20.21922627286761</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4974076933438623</v>
+        <v>-0.5050834341249187</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.726364228301658</v>
+        <v>-6.72883317676945</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.098315431218419</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.9785183733407</v>
+        <v>-20.97951573074155</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5926993261869016</v>
+        <v>-0.6016657647808236</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.045000361845973</v>
+        <v>-7.050857392072537</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.128891709772257</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.81954977962175</v>
+        <v>-21.82230229048782</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7205468557567275</v>
+        <v>-0.7265554451961659</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.352235331376642</v>
+        <v>-7.355779861355155</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.069148273016508</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.80900654537546</v>
+        <v>-22.81090836904669</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9128754968942946</v>
+        <v>-0.9230152971362762</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.429887427443852</v>
+        <v>-7.433593294648974</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.918466732779092</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.86293953369005</v>
+        <v>-23.86458223999733</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.167749202880305</v>
+        <v>-1.176216962773801</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.808066775620324</v>
+        <v>-7.808858794732764</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.681363875076346</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.07248961057854</v>
+        <v>-25.07343318890386</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.10189428038296</v>
+        <v>-1.108245100303083</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.168024795203804</v>
+        <v>-8.171305318811504</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>1.360453607169459</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.35597613831539</v>
+        <v>-26.3528862859755</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.326945044480789</v>
+        <v>-1.330191345040421</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.427323052404372</v>
+        <v>-8.437233069323609</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.9610793895145802</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.58991258145605</v>
+        <v>-27.59064593248609</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.608385613781615</v>
+        <v>-1.614086195788438</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.723582201518818</v>
+        <v>-8.735917165844043</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.4954816144929911</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.10535803999368</v>
+        <v>-29.10167172881602</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.865713601214817</v>
+        <v>-1.867429642625104</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.06161791431105</v>
+        <v>-9.073419976887783</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.02564845835711252</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.76034553252679</v>
+        <v>-30.75206355489424</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.139214423363772</v>
+        <v>-2.137405490823014</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.323487789123616</v>
+        <v>-9.33717211934411</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.5907095118572228</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.58060345769253</v>
+        <v>-32.57582445348012</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.180570532451006</v>
+        <v>-2.173755256878527</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.669893481672007</v>
+        <v>-9.684364941998076</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.172257357523116</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.31292770534994</v>
+        <v>-34.30479239792339</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.552545730913363</v>
+        <v>-2.542968166461077</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.02917681830785</v>
+        <v>-10.04422518144422</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.764411859452066</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.31187638699799</v>
+        <v>-36.3005021125221</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.954847438971193</v>
+        <v>-2.943920508623639</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.4357172953193</v>
+        <v>-10.4541586292213</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.334996805880238</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.36593639855333</v>
+        <v>-38.34835797436334</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.230489646127858</v>
+        <v>-3.219914724274721</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.76152071293051</v>
+        <v>-10.78136519180332</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.892333919249445</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.55762439791577</v>
+        <v>-40.54211157912705</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.590271661464129</v>
+        <v>-3.580205196325151</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.98089534005585</v>
+        <v>-10.99420810575446</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.389934997793903</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.45476684507061</v>
+        <v>-42.44280344526727</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.007465284438583</v>
+        <v>-3.999525537286713</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.23180406147279</v>
+        <v>-11.2437870173036</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.893082781586499</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.74106934982502</v>
+        <v>-44.72507740836334</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.255513936838379</v>
+        <v>-4.247007064889948</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.38942564286213</v>
+        <v>-11.39853875166206</v>
       </c>
     </row>
   </sheetData>
